--- a/dtpu_configurations/only_integer64/50mhz/mxu_5x5/power.xlsx
+++ b/dtpu_configurations/only_integer64/50mhz/mxu_5x5/power.xlsx
@@ -175,22 +175,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.017535580322146416</v>
+        <v>0.0476088747382164</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.011109588667750359</v>
+        <v>0.013125336728990078</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.007041588891297579</v>
+        <v>0.007366156205534935</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.0063186706975102425</v>
+        <v>0.004317492712289095</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>2.797835441015195E-5</v>
+        <v>5.809338432527511E-8</v>
       </c>
       <c r="G2" t="n" s="4">
-        <v>0.0017373355804011226</v>
+        <v>0.001304448815062642</v>
       </c>
       <c r="H2" t="n" s="4">
         <v>9.700000518932939E-4</v>
@@ -199,10 +199,10 @@
         <v>1.258823275566101</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12637338042259216</v>
+        <v>0.1276422142982483</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4299441576004028</v>
+        <v>1.4611644744873047</v>
       </c>
     </row>
   </sheetData>
